--- a/data/ENV-5.12.xlsx
+++ b/data/ENV-5.12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aomoda/Documents/credit/credit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE189CAE-AA9B-A348-AE44-C0D398D04EBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BDDB7C-C544-FF4D-A03E-3EA4D5C6993E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENV" sheetId="53" r:id="rId1"/>
@@ -1314,9 +1314,81 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1334,78 +1406,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,10 +1685,10 @@
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J94" sqref="J94"/>
+      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1698,104 +1698,104 @@
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="64" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="34" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="18" max="18" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="78" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64"/>
     </row>
     <row r="2" spans="1:18" s="31" customFormat="1" ht="17" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="56" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="31" customFormat="1" ht="17">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38"/>
       <c r="P3" s="32" t="s">
         <v>237</v>
       </c>
@@ -1807,22 +1807,22 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="35">
         <v>125</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="36">
         <v>30</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="35" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -1831,131 +1831,131 @@
       <c r="H4" s="6">
         <v>10</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N4" s="49" t="s">
+      <c r="I4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>194</v>
       </c>
       <c r="O4" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:18" ht="17">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="6">
         <v>15</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
       <c r="O5" s="50"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:18" ht="17">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="6">
         <v>20</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="50"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:18" ht="17">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="6">
         <v>25</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="50"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" ht="17">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="6">
         <v>30</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="50"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" ht="51">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="14" t="s">
         <v>9</v>
       </c>
@@ -1995,9 +1995,9 @@
       <c r="R9" s="30"/>
     </row>
     <row r="10" spans="1:18" ht="47" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
@@ -2035,8 +2035,8 @@
       <c r="R10" s="30"/>
     </row>
     <row r="11" spans="1:18" ht="56" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="14" t="s">
         <v>196</v>
       </c>
@@ -2077,18 +2077,18 @@
       <c r="R11" s="23"/>
     </row>
     <row r="12" spans="1:18" ht="17">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="37">
         <v>10</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="35" t="s">
         <v>126</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -2097,90 +2097,90 @@
       <c r="H12" s="6">
         <v>5</v>
       </c>
-      <c r="I12" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M12" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N12" s="49" t="s">
+      <c r="I12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N12" s="37" t="s">
         <v>199</v>
       </c>
       <c r="O12" s="50"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" ht="17">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="59"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="6">
         <v>8</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="50"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:18" ht="17">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="59"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="6">
         <v>10</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="50"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
     </row>
     <row r="15" spans="1:18" ht="17">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="37">
         <v>20</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="35" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="14" t="s">
@@ -2189,118 +2189,118 @@
       <c r="H15" s="6">
         <v>20</v>
       </c>
-      <c r="I15" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N15" s="49"/>
-      <c r="O15" s="63" t="s">
+      <c r="I15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N15" s="37"/>
+      <c r="O15" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
     </row>
     <row r="16" spans="1:18" ht="17">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="14" t="s">
         <v>71</v>
       </c>
       <c r="H16" s="6">
         <v>10</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
     </row>
     <row r="17" spans="1:18" ht="17">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="1:18" ht="17">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="59"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="6">
         <v>-10</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
     </row>
     <row r="19" spans="1:18" ht="17">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="42">
         <v>40</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="35" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -2309,208 +2309,208 @@
       <c r="H19" s="6">
         <v>-2</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" s="51" t="s">
+      <c r="I19" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="N19" s="51" t="s">
+      <c r="L19" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="N19" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="O19" s="46" t="s">
+      <c r="O19" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" ht="17">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="59"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="6">
         <v>-5</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="1:18" ht="34">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="59"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="6">
         <v>-10</v>
       </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
     </row>
     <row r="22" spans="1:18" ht="34">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="59"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="6">
         <v>-10</v>
       </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
     </row>
     <row r="23" spans="1:18" ht="16">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="59"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="6">
         <v>-10</v>
       </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
     </row>
     <row r="24" spans="1:18" ht="16">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="59"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="6">
         <v>-10</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
     </row>
     <row r="25" spans="1:18" ht="17">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="59"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="6">
         <v>-20</v>
       </c>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
     </row>
     <row r="26" spans="1:18" ht="17">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="59"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="14" t="s">
         <v>110</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
     </row>
     <row r="27" spans="1:18" ht="16">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="37">
         <v>60</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="35" t="s">
         <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2519,94 +2519,94 @@
       <c r="H27" s="6">
         <v>-10</v>
       </c>
-      <c r="I27" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J27" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="K27" s="51" t="s">
+      <c r="I27" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L27" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="M27" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="N27" s="51" t="s">
+      <c r="L27" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="N27" s="41" t="s">
         <v>202</v>
       </c>
       <c r="O27" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
     </row>
     <row r="28" spans="1:18" ht="16">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="59"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="6">
         <v>-15</v>
       </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="50"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
     </row>
     <row r="29" spans="1:18" ht="17">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="59"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="6">
         <v>-20</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="50"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
     </row>
     <row r="30" spans="1:18" ht="17" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="36">
         <v>80</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="35" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -2615,140 +2615,140 @@
       <c r="H30" s="6">
         <v>-5</v>
       </c>
-      <c r="I30" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="49" t="s">
+      <c r="I30" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="L30" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M30" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N30" s="49" t="s">
+      <c r="L30" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N30" s="37" t="s">
         <v>202</v>
       </c>
       <c r="O30" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
     </row>
     <row r="31" spans="1:18" ht="17">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="59"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="6">
         <v>-8</v>
       </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="50"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
     </row>
     <row r="32" spans="1:18" ht="17">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="59"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="6">
         <v>-10</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="50"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
     </row>
     <row r="33" spans="1:18" ht="17">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="59"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H33" s="6">
         <v>-15</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="50"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
     </row>
     <row r="34" spans="1:18" ht="17">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="59"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H34" s="6">
         <v>-20</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
       <c r="O34" s="50"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
     </row>
     <row r="35" spans="1:18" ht="35" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="37">
         <v>20</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="35" t="s">
         <v>121</v>
       </c>
       <c r="G35" s="14" t="s">
@@ -2757,64 +2757,64 @@
       <c r="H35" s="6">
         <v>20</v>
       </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J35" s="49" t="s">
+      <c r="J35" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="K35" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N35" s="49"/>
+      <c r="K35" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="37"/>
       <c r="O35" s="50"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
     </row>
     <row r="36" spans="1:18" ht="37" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="59"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="14" t="s">
         <v>73</v>
       </c>
       <c r="H36" s="6">
         <v>10</v>
       </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
       <c r="O36" s="50"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
     </row>
     <row r="37" spans="1:18" ht="17">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="37">
         <v>20</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="35" t="s">
         <v>173</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2823,136 +2823,136 @@
       <c r="H37" s="16">
         <v>20</v>
       </c>
-      <c r="I37" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J37" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="K37" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M37" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N37" s="49"/>
+      <c r="I37" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N37" s="37"/>
       <c r="O37" s="50"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
     </row>
     <row r="38" spans="1:18" ht="17">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="59"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H38" s="16">
         <v>10</v>
       </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
       <c r="O38" s="50"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
     </row>
     <row r="39" spans="1:18" ht="17">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="59"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H39" s="16">
         <v>5</v>
       </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
       <c r="O39" s="50"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
     </row>
     <row r="40" spans="1:18" ht="16">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="59"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="10">
         <v>-2</v>
       </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
       <c r="O40" s="50"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
     </row>
     <row r="41" spans="1:18" ht="16">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="35"/>
       <c r="G41" s="13">
         <v>0</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
       </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
       <c r="O41" s="50"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
     </row>
     <row r="42" spans="1:18" ht="34">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="37">
         <v>60</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="35" t="s">
         <v>163</v>
       </c>
       <c r="G42" s="16" t="s">
@@ -2961,84 +2961,84 @@
       <c r="H42" s="16">
         <v>0.5</v>
       </c>
-      <c r="I42" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="K42" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L42" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M42" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N42" s="49" t="s">
+      <c r="I42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="O42" s="60" t="s">
+      <c r="O42" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
     </row>
     <row r="43" spans="1:18" ht="16">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="59"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="13" t="s">
         <v>91</v>
       </c>
       <c r="H43" s="16">
         <v>0.1</v>
       </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
     </row>
     <row r="44" spans="1:18" ht="16">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="59"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H44" s="16">
         <v>0.5</v>
       </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
     </row>
     <row r="45" spans="1:18" ht="51">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="59">
+      <c r="B45" s="35">
         <v>80</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -3085,18 +3085,18 @@
       <c r="R45" s="23"/>
     </row>
     <row r="46" spans="1:18" ht="27" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="37">
         <v>30</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="37" t="s">
         <v>138</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -3105,64 +3105,64 @@
       <c r="H46" s="9">
         <v>5</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J46" s="49" t="s">
+      <c r="J46" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="K46" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L46" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M46" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N46" s="49" t="s">
+      <c r="K46" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N46" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="O46" s="60" t="s">
+      <c r="O46" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="P46" s="42" t="s">
+      <c r="P46" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="Q46" s="42" t="s">
+      <c r="Q46" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="R46" s="42" t="s">
+      <c r="R46" s="53" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="32" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="14" t="s">
         <v>76</v>
       </c>
       <c r="H47" s="9">
         <v>8</v>
       </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
     </row>
     <row r="48" spans="1:18" ht="32" customHeight="1">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="18" t="s">
         <v>98</v>
       </c>
@@ -3196,15 +3196,15 @@
       <c r="M48" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="N48" s="49"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
     </row>
     <row r="49" spans="1:18" ht="34">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="14" t="s">
         <v>46</v>
       </c>
@@ -3238,15 +3238,15 @@
       <c r="M49" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="N49" s="49"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
     </row>
     <row r="50" spans="1:18" ht="29" customHeight="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="14" t="s">
         <v>81</v>
       </c>
@@ -3280,17 +3280,17 @@
       <c r="M50" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="N50" s="49"/>
+      <c r="N50" s="37"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
     </row>
     <row r="51" spans="1:18" ht="68">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="35" t="s">
         <v>106</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -3305,10 +3305,10 @@
       <c r="F51" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="H51" s="52"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="11" t="s">
         <v>200</v>
       </c>
@@ -3335,615 +3335,615 @@
       <c r="R51" s="23"/>
     </row>
     <row r="52" spans="1:18" ht="17" customHeight="1">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="37">
         <v>10</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="53" t="s">
+      <c r="G52" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="H52" s="53"/>
-      <c r="I52" s="49" t="s">
+      <c r="H52" s="49"/>
+      <c r="I52" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J52" s="49" t="s">
+      <c r="J52" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="K52" s="49">
+      <c r="K52" s="37">
         <v>5</v>
       </c>
-      <c r="L52" s="49" t="s">
+      <c r="L52" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="M52" s="34" t="s">
+      <c r="M52" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="N52" s="49" t="s">
+      <c r="N52" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="O52" s="58" t="s">
+      <c r="O52" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
     </row>
     <row r="53" spans="1:18" ht="17" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
     </row>
     <row r="54" spans="1:18" ht="16" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
     </row>
     <row r="55" spans="1:18" ht="16" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
     </row>
     <row r="56" spans="1:18" ht="16" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
     </row>
     <row r="57" spans="1:18" ht="17" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="37">
         <v>45</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="49" t="s">
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J57" s="49" t="s">
+      <c r="J57" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="K57" s="49">
+      <c r="K57" s="37">
         <v>15</v>
       </c>
-      <c r="L57" s="49" t="s">
+      <c r="L57" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="M57" s="34" t="s">
+      <c r="M57" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="N57" s="49"/>
-      <c r="O57" s="58" t="s">
+      <c r="N57" s="37"/>
+      <c r="O57" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
     </row>
     <row r="58" spans="1:18" ht="17" customHeight="1">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
     </row>
     <row r="59" spans="1:18" ht="16" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
     </row>
     <row r="60" spans="1:18" ht="16" customHeight="1">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
     </row>
     <row r="61" spans="1:18" ht="16" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
     </row>
     <row r="62" spans="1:18" ht="17" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="37">
         <v>15</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="49" t="s">
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J62" s="49" t="s">
+      <c r="J62" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="K62" s="49">
+      <c r="K62" s="37">
         <v>5</v>
       </c>
-      <c r="L62" s="49" t="s">
+      <c r="L62" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="M62" s="34" t="s">
+      <c r="M62" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="N62" s="49"/>
-      <c r="O62" s="58" t="s">
+      <c r="N62" s="37"/>
+      <c r="O62" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
     </row>
     <row r="63" spans="1:18" ht="17" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
     </row>
     <row r="64" spans="1:18" ht="16" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
     </row>
     <row r="65" spans="1:18" ht="16" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
     </row>
     <row r="66" spans="1:18" ht="16" customHeight="1">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
     </row>
     <row r="67" spans="1:18" ht="17" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="37">
         <v>45</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F67" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="49" t="s">
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J67" s="49" t="s">
+      <c r="J67" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="K67" s="49">
+      <c r="K67" s="37">
         <v>15</v>
       </c>
-      <c r="L67" s="49" t="s">
+      <c r="L67" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="M67" s="34" t="s">
+      <c r="M67" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="N67" s="49"/>
-      <c r="O67" s="58" t="s">
+      <c r="N67" s="37"/>
+      <c r="O67" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
     </row>
     <row r="68" spans="1:18" ht="17" customHeight="1">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
     </row>
     <row r="69" spans="1:18" ht="16" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
     </row>
     <row r="70" spans="1:18" ht="16" customHeight="1">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="58"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
     </row>
     <row r="71" spans="1:18" ht="16" customHeight="1">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="48"/>
+      <c r="Q71" s="48"/>
+      <c r="R71" s="48"/>
     </row>
     <row r="72" spans="1:18" ht="17" customHeight="1">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E72" s="49">
+      <c r="E72" s="37">
         <v>15</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="F72" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="49" t="s">
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J72" s="49" t="s">
+      <c r="J72" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="K72" s="49">
+      <c r="K72" s="37">
         <v>5</v>
       </c>
-      <c r="L72" s="49" t="s">
+      <c r="L72" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="M72" s="34" t="s">
+      <c r="M72" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="N72" s="49"/>
-      <c r="O72" s="58" t="s">
+      <c r="N72" s="37"/>
+      <c r="O72" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
+      <c r="P72" s="48"/>
+      <c r="Q72" s="48"/>
+      <c r="R72" s="48"/>
     </row>
     <row r="73" spans="1:18" ht="17" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="58"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
     </row>
     <row r="74" spans="1:18" ht="16" customHeight="1">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="48"/>
+      <c r="Q74" s="48"/>
+      <c r="R74" s="48"/>
     </row>
     <row r="75" spans="1:18" ht="16" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="48"/>
+      <c r="Q75" s="48"/>
+      <c r="R75" s="48"/>
     </row>
     <row r="76" spans="1:18" ht="16" customHeight="1">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="48"/>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="48"/>
     </row>
     <row r="77" spans="1:18" ht="68">
-      <c r="A77" s="59"/>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="35"/>
+      <c r="B77" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="46" t="s">
         <v>61</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E77" s="54">
+      <c r="E77" s="46">
         <v>90</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -3955,39 +3955,39 @@
       <c r="H77" s="16">
         <v>8</v>
       </c>
-      <c r="I77" s="54" t="s">
+      <c r="I77" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="J77" s="54" t="s">
+      <c r="J77" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="K77" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L77" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M77" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N77" s="51" t="s">
+      <c r="K77" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L77" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M77" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N77" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="O77" s="60" t="s">
+      <c r="O77" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
+      <c r="P77" s="48"/>
+      <c r="Q77" s="48"/>
+      <c r="R77" s="48"/>
     </row>
     <row r="78" spans="1:18" ht="17">
-      <c r="A78" s="59"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="54"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="12" t="s">
         <v>160</v>
       </c>
@@ -3997,20 +3997,20 @@
       <c r="H78" s="16">
         <v>10</v>
       </c>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="60"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="48"/>
+      <c r="Q78" s="48"/>
+      <c r="R78" s="48"/>
     </row>
     <row r="79" spans="1:18" ht="68">
-      <c r="A79" s="59"/>
-      <c r="B79" s="49"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="12" t="s">
         <v>63</v>
       </c>
@@ -4044,17 +4044,17 @@
       <c r="M79" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="N79" s="51" t="s">
+      <c r="N79" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="O79" s="60"/>
+      <c r="O79" s="44"/>
       <c r="P79" s="23"/>
       <c r="Q79" s="23"/>
       <c r="R79" s="23"/>
     </row>
     <row r="80" spans="1:18" ht="68">
-      <c r="A80" s="59"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="12" t="s">
         <v>54</v>
       </c>
@@ -4088,15 +4088,15 @@
       <c r="M80" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="N80" s="51"/>
-      <c r="O80" s="60"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="44"/>
       <c r="P80" s="23"/>
       <c r="Q80" s="23"/>
       <c r="R80" s="23"/>
     </row>
     <row r="81" spans="1:18" ht="50" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="28" t="s">
         <v>234</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="K81" s="11"/>
       <c r="L81" s="20"/>
       <c r="M81" s="22"/>
-      <c r="N81" s="51"/>
+      <c r="N81" s="41"/>
       <c r="O81" s="16" t="s">
         <v>236</v>
       </c>
@@ -4131,9 +4131,9 @@
       </c>
     </row>
     <row r="82" spans="1:18" ht="68">
-      <c r="A82" s="59"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="54" t="s">
+      <c r="A82" s="35"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="46" t="s">
         <v>55</v>
       </c>
       <c r="D82" s="17" t="s">
@@ -4166,8 +4166,8 @@
       <c r="M82" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="N82" s="51"/>
-      <c r="O82" s="60" t="s">
+      <c r="N82" s="41"/>
+      <c r="O82" s="44" t="s">
         <v>112</v>
       </c>
       <c r="P82" s="23"/>
@@ -4175,9 +4175,9 @@
       <c r="R82" s="23"/>
     </row>
     <row r="83" spans="1:18" ht="68">
-      <c r="A83" s="59"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="54"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="17" t="s">
         <v>150</v>
       </c>
@@ -4208,16 +4208,16 @@
       <c r="M83" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="N83" s="51"/>
-      <c r="O83" s="60"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="44"/>
       <c r="P83" s="23"/>
       <c r="Q83" s="23"/>
       <c r="R83" s="23"/>
     </row>
     <row r="84" spans="1:18" ht="68">
-      <c r="A84" s="59"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="54"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="17" t="s">
         <v>79</v>
       </c>
@@ -4248,16 +4248,16 @@
       <c r="M84" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="N84" s="51"/>
-      <c r="O84" s="60"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="44"/>
       <c r="P84" s="23"/>
       <c r="Q84" s="23"/>
       <c r="R84" s="23"/>
     </row>
     <row r="85" spans="1:18" ht="68">
-      <c r="A85" s="59"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="54"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="17" t="s">
         <v>151</v>
       </c>
@@ -4288,16 +4288,16 @@
       <c r="M85" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="N85" s="51"/>
-      <c r="O85" s="60"/>
+      <c r="N85" s="41"/>
+      <c r="O85" s="44"/>
       <c r="P85" s="23"/>
       <c r="Q85" s="23"/>
       <c r="R85" s="23"/>
     </row>
     <row r="86" spans="1:18" ht="68">
-      <c r="A86" s="59"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="54"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="17" t="s">
         <v>152</v>
       </c>
@@ -4328,24 +4328,24 @@
       <c r="M86" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="N86" s="51"/>
-      <c r="O86" s="60"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="44"/>
       <c r="P86" s="23"/>
       <c r="Q86" s="23"/>
       <c r="R86" s="23"/>
     </row>
     <row r="87" spans="1:18" ht="68">
-      <c r="A87" s="59"/>
-      <c r="B87" s="49" t="s">
+      <c r="A87" s="35"/>
+      <c r="B87" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="35" t="s">
         <v>154</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="55">
+      <c r="E87" s="42">
         <v>60</v>
       </c>
       <c r="F87" s="4" t="s">
@@ -4357,39 +4357,39 @@
       <c r="H87" s="16">
         <v>1</v>
       </c>
-      <c r="I87" s="55" t="s">
+      <c r="I87" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="J87" s="55" t="s">
+      <c r="J87" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="K87" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L87" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="M87" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="N87" s="51" t="s">
+      <c r="K87" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L87" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M87" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N87" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="O87" s="60" t="s">
+      <c r="O87" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-    </row>
-    <row r="88" spans="1:18" ht="17">
-      <c r="A88" s="59"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="59"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48"/>
+    </row>
+    <row r="88" spans="1:18" ht="25" customHeight="1">
+      <c r="A88" s="35"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E88" s="55"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="12" t="s">
         <v>117</v>
       </c>
@@ -4399,21 +4399,21 @@
       <c r="H88" s="16">
         <v>8</v>
       </c>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
     </row>
     <row r="89" spans="1:18" ht="68">
-      <c r="A89" s="59"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="59" t="s">
+      <c r="A89" s="35"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="35" t="s">
         <v>155</v>
       </c>
       <c r="D89" s="14" t="s">
@@ -4446,18 +4446,18 @@
       <c r="M89" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="N89" s="51" t="s">
+      <c r="N89" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="O89" s="60"/>
+      <c r="O89" s="44"/>
       <c r="P89" s="23"/>
       <c r="Q89" s="23"/>
       <c r="R89" s="23"/>
     </row>
     <row r="90" spans="1:18" ht="68">
-      <c r="A90" s="59"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="59"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="14" t="s">
         <v>52</v>
       </c>
@@ -4488,16 +4488,16 @@
       <c r="M90" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="N90" s="51"/>
-      <c r="O90" s="60"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="44"/>
       <c r="P90" s="23"/>
       <c r="Q90" s="23"/>
       <c r="R90" s="23"/>
     </row>
     <row r="91" spans="1:18" ht="68">
-      <c r="A91" s="59"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="59" t="s">
+      <c r="A91" s="35"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="35" t="s">
         <v>58</v>
       </c>
       <c r="D91" s="12" t="s">
@@ -4530,10 +4530,10 @@
       <c r="M91" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="N91" s="51" t="s">
+      <c r="N91" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="O91" s="61" t="s">
+      <c r="O91" s="47" t="s">
         <v>114</v>
       </c>
       <c r="P91" s="23"/>
@@ -4541,9 +4541,9 @@
       <c r="R91" s="23"/>
     </row>
     <row r="92" spans="1:18" ht="68">
-      <c r="A92" s="59"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="59"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="35"/>
       <c r="D92" s="12" t="s">
         <v>183</v>
       </c>
@@ -4574,16 +4574,16 @@
       <c r="M92" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="N92" s="51"/>
-      <c r="O92" s="61"/>
+      <c r="N92" s="41"/>
+      <c r="O92" s="47"/>
       <c r="P92" s="23"/>
       <c r="Q92" s="23"/>
       <c r="R92" s="23"/>
     </row>
     <row r="93" spans="1:18" ht="68">
-      <c r="A93" s="59"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="59" t="s">
+      <c r="A93" s="35"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="35" t="s">
         <v>55</v>
       </c>
       <c r="D93" s="17" t="s">
@@ -4616,10 +4616,10 @@
       <c r="M93" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="N93" s="51" t="s">
+      <c r="N93" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="O93" s="58" t="s">
+      <c r="O93" s="45" t="s">
         <v>112</v>
       </c>
       <c r="P93" s="23"/>
@@ -4627,9 +4627,9 @@
       <c r="R93" s="23"/>
     </row>
     <row r="94" spans="1:18" ht="68">
-      <c r="A94" s="59"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="59"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="17" t="s">
         <v>185</v>
       </c>
@@ -4661,16 +4661,16 @@
       <c r="M94" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="N94" s="51"/>
-      <c r="O94" s="58"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="45"/>
       <c r="P94" s="23"/>
       <c r="Q94" s="23"/>
       <c r="R94" s="23"/>
     </row>
     <row r="95" spans="1:18" ht="68">
-      <c r="A95" s="59"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="59"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="17" t="s">
         <v>186</v>
       </c>
@@ -4702,214 +4702,53 @@
       <c r="M95" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="N95" s="51"/>
-      <c r="O95" s="58"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="45"/>
       <c r="P95" s="23"/>
       <c r="Q95" s="23"/>
       <c r="R95" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="K19:K26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="A19:A44"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="B30:B44"/>
-    <mergeCell ref="A51:A95"/>
-    <mergeCell ref="B51:B76"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="C62:C76"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="K72:K76"/>
-    <mergeCell ref="O72:O76"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="N52:N76"/>
-    <mergeCell ref="K62:K66"/>
-    <mergeCell ref="O62:O66"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="K67:K71"/>
-    <mergeCell ref="O67:O71"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="K52:K56"/>
-    <mergeCell ref="O52:O56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="K57:K61"/>
-    <mergeCell ref="O57:O61"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O80"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="O82:O86"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="B87:B95"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="J19:J26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="N4:N8"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="L19:L26"/>
-    <mergeCell ref="M19:M26"/>
-    <mergeCell ref="N19:N26"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="K37:K41"/>
-    <mergeCell ref="L37:L41"/>
-    <mergeCell ref="M37:M41"/>
-    <mergeCell ref="N37:N41"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="N30:N34"/>
-    <mergeCell ref="M52:M56"/>
-    <mergeCell ref="L52:L56"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H76"/>
-    <mergeCell ref="L57:L61"/>
-    <mergeCell ref="L62:L66"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="L67:L71"/>
-    <mergeCell ref="L72:L76"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="M62:M66"/>
-    <mergeCell ref="M67:M71"/>
-    <mergeCell ref="M72:M76"/>
-    <mergeCell ref="N46:N50"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="O19:O26"/>
+    <mergeCell ref="R46:R50"/>
+    <mergeCell ref="R67:R71"/>
+    <mergeCell ref="R72:R76"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="Q52:Q56"/>
+    <mergeCell ref="Q57:Q61"/>
+    <mergeCell ref="Q62:Q66"/>
+    <mergeCell ref="Q67:Q71"/>
+    <mergeCell ref="Q72:Q76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="Q30:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q41"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="Q46:Q50"/>
+    <mergeCell ref="P62:P66"/>
+    <mergeCell ref="P67:P71"/>
+    <mergeCell ref="P72:P76"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="R37:R41"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="P37:P41"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="P46:P50"/>
+    <mergeCell ref="P52:P56"/>
+    <mergeCell ref="P57:P61"/>
     <mergeCell ref="O30:O41"/>
     <mergeCell ref="R4:R8"/>
     <mergeCell ref="R12:R14"/>
@@ -4934,45 +4773,206 @@
     <mergeCell ref="R62:R66"/>
     <mergeCell ref="R27:R29"/>
     <mergeCell ref="R30:R34"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="R37:R41"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="P37:P41"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="P46:P50"/>
-    <mergeCell ref="P52:P56"/>
-    <mergeCell ref="P57:P61"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="O19:O26"/>
-    <mergeCell ref="R46:R50"/>
-    <mergeCell ref="R67:R71"/>
-    <mergeCell ref="R72:R76"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="Q52:Q56"/>
-    <mergeCell ref="Q57:Q61"/>
-    <mergeCell ref="Q62:Q66"/>
-    <mergeCell ref="Q67:Q71"/>
-    <mergeCell ref="Q72:Q76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q41"/>
-    <mergeCell ref="Q42:Q44"/>
-    <mergeCell ref="Q46:Q50"/>
-    <mergeCell ref="P62:P66"/>
-    <mergeCell ref="P67:P71"/>
-    <mergeCell ref="P72:P76"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H76"/>
+    <mergeCell ref="L57:L61"/>
+    <mergeCell ref="L62:L66"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="L72:L76"/>
+    <mergeCell ref="M57:M61"/>
+    <mergeCell ref="M62:M66"/>
+    <mergeCell ref="M67:M71"/>
+    <mergeCell ref="M72:M76"/>
+    <mergeCell ref="N46:N50"/>
+    <mergeCell ref="L19:L26"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="N19:N26"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="M37:M41"/>
+    <mergeCell ref="N37:N41"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="N30:N34"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J19:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O80"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="O82:O86"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="B87:B95"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="K72:K76"/>
+    <mergeCell ref="O72:O76"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="N52:N76"/>
+    <mergeCell ref="K62:K66"/>
+    <mergeCell ref="O62:O66"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="O67:O71"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="O52:O56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="O57:O61"/>
+    <mergeCell ref="M52:M56"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="A51:A95"/>
+    <mergeCell ref="B51:B76"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="C62:C76"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="A19:A44"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="B30:B44"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="K19:K26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="K12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
